--- a/Artéfacts/Artéfacts Sprint 4 - Partie_2/Calendrier Sprint 4 - Partie_2.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4 - Partie_2/Calendrier Sprint 4 - Partie_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4 - Partie_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B39EE0E-F2EA-4C1E-A711-5A057296BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1670E17B-77AE-4D25-85E9-69890A42D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>LUNDI</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Rendu et artéfacts :</t>
   </si>
   <si>
-    <t>Restructuration du code</t>
-  </si>
-  <si>
     <t>Tâche terminé le 12/03/2024</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>Faire le rapport de la deuxième partie du Sprint 4</t>
+  </si>
+  <si>
+    <t>Aspect visuel des tests dans le terminal</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 13/03/2024</t>
+  </si>
+  <si>
+    <t>Amélioration du code</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -213,8 +219,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +553,7 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -558,7 +562,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -570,10 +574,10 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -588,11 +592,11 @@
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
@@ -604,7 +608,7 @@
         <v>45363</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:Q2" si="0">C2+1</f>
+        <f t="shared" ref="D2:O2" si="0">C2+1</f>
         <v>45364</v>
       </c>
       <c r="E2" s="1">
@@ -659,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -708,11 +712,11 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,13 +730,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
@@ -741,13 +745,12 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -755,59 +758,59 @@
       </c>
       <c r="B7">
         <f>B4-B5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:G7" si="1">B7+C4-C5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>G7+H4-H5</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <f>H7+I4-I5</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <f>I7+J4-J5</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <f>J7+K4-K5</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:Q7" si="2">K7+L4-L5</f>
-        <v>6</v>
+        <f t="shared" ref="L7:O7" si="2">K7+L4-L5</f>
+        <v>4</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -825,40 +828,34 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9"/>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -869,10 +866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,82 +888,76 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+        <v>23</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <f>B4+B5+B6+B9+B10+B11</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
+      <c r="B14">
+        <f>B4+B5+B6+B7+B10+B11+B12</f>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Artéfacts/Artéfacts Sprint 4 - Partie_2/Calendrier Sprint 4 - Partie_2.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4 - Partie_2/Calendrier Sprint 4 - Partie_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4 - Partie_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1670E17B-77AE-4D25-85E9-69890A42D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829DE75E-8C31-4C79-A788-5F9DBF2C4CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>LUNDI</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Rendu et artéfacts :</t>
   </si>
   <si>
-    <t>Tâche terminé le 12/03/2024</t>
-  </si>
-  <si>
     <t>Rendu de Sprint</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Amélioration du code</t>
+  </si>
+  <si>
+    <t>Tâche terminé le 23/03/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 24/03/2024</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,11 +748,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -806,11 +809,11 @@
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -836,25 +839,25 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +872,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +894,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -899,15 +902,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -930,23 +933,23 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Artéfacts/Artéfacts Sprint 4 - Partie_2/Calendrier Sprint 4 - Partie_2.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4 - Partie_2/Calendrier Sprint 4 - Partie_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4 - Partie_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829DE75E-8C31-4C79-A788-5F9DBF2C4CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DED1352-2B2D-4894-9CAE-6A413051E7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Ajout d’articles scientifiques à notre Corpus</t>
   </si>
   <si>
-    <t>Faire le tableau Excel et le détails des tâches du Sprint 4 - Partie 2</t>
-  </si>
-  <si>
     <t>Faire le rapport de la deuxième partie du Sprint 4</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Tâches terminé le 24/03/2024</t>
+  </si>
+  <si>
+    <t>Faire le tableau Excel et le détail des tâches du Sprint 4 - Partie 2</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -845,19 +845,19 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
